--- a/Filtered_By_Region/Region IV-B/Region IV-B_REPAIR.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_REPAIR.xlsx
@@ -771,47 +771,8 @@
           <t>KARANGYAN BUILDERS AND TRADERS</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -915,47 +876,8 @@
           <t>KARANGYAN BUILDERS AND TRADERS</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -1059,47 +981,8 @@
           <t>KARANGYAN BUILDERS AND TRADERS</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1183,47 +1066,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1307,47 +1151,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
         <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1431,47 +1236,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
         <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1555,47 +1321,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
       <c r="AM8" t="n">
         <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -1679,47 +1406,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
       <c r="AM9" t="n">
         <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -1803,47 +1491,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
       <c r="AM10" t="n">
         <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -1927,47 +1576,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
         <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -2051,47 +1661,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
         <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -2175,47 +1746,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -2299,47 +1831,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -2423,47 +1916,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
         <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -2547,47 +2001,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
         <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -2671,47 +2086,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -2795,47 +2171,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
         <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -2919,47 +2256,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
         <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -3043,47 +2341,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
         <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -3167,47 +2426,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
         <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -3291,47 +2511,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
         <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -3415,47 +2596,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -3539,47 +2681,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
         <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -3663,47 +2766,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
         <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -3787,47 +2851,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -3911,47 +2936,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
         <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -4035,47 +3021,8 @@
           <t>GS MOTAR</t>
         </is>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
         <v>1</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -4184,47 +3131,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
         <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -4333,47 +3241,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
       <c r="AM30" t="n">
         <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -4482,47 +3351,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
       <c r="AM31" t="n">
         <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -4631,47 +3461,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
         <v>1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
@@ -4780,47 +3571,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
       <c r="AM33" t="n">
         <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
@@ -4929,47 +3681,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
         <v>1</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
@@ -5078,47 +3791,8 @@
           <t>Kasanga Const. and Supplies</t>
         </is>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
         <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
@@ -5227,47 +3901,8 @@
           <t>CMSEL Const. &amp; Developer</t>
         </is>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
         <v>1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -5376,47 +4011,8 @@
           <t>CMSEL Const. &amp; Developer</t>
         </is>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
       <c r="AM37" t="n">
         <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -5525,47 +4121,8 @@
           <t>ETVR Trading &amp; Const.</t>
         </is>
       </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
       <c r="AM38" t="n">
         <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
@@ -5674,47 +4231,8 @@
           <t>DK Const.</t>
         </is>
       </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
         <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
@@ -5823,47 +4341,8 @@
           <t>ADL Constrak</t>
         </is>
       </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
       <c r="AM40" t="n">
         <v>1</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -5972,47 +4451,8 @@
           <t>ADL Constrak</t>
         </is>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
         <v>1</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -6121,47 +4561,8 @@
           <t>ETVR Trading &amp; Const.</t>
         </is>
       </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" t="n">
         <v>1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
@@ -6270,47 +4671,8 @@
           <t>ADL Constrak</t>
         </is>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
       <c r="AM43" t="n">
         <v>1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
@@ -6419,47 +4781,8 @@
           <t>ADL Constrak</t>
         </is>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
       <c r="AM44" t="n">
         <v>1</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
@@ -6568,47 +4891,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
       <c r="AM45" t="n">
         <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
@@ -6717,47 +5001,8 @@
           <t>Futuristic Trdg. And Construction</t>
         </is>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
       <c r="AM46" t="n">
         <v>1</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
@@ -6866,47 +5111,8 @@
           <t>Futuristic Trdg. And Construction</t>
         </is>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
       <c r="AM47" t="n">
         <v>1</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
@@ -7015,47 +5221,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
       <c r="AM48" t="n">
         <v>1</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
@@ -7164,47 +5331,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
       <c r="AM49" t="n">
         <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
@@ -7313,47 +5441,8 @@
           <t>Ian Jason Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
       <c r="AM50" t="n">
         <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
@@ -7462,47 +5551,8 @@
           <t>Ian Jason Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
       <c r="AM51" t="n">
         <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
@@ -7611,47 +5661,8 @@
           <t>Futuristic Trdg. And Construction</t>
         </is>
       </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
       <c r="AM52" t="n">
         <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
@@ -7760,47 +5771,8 @@
           <t>Futuristic Trdg. And Construction</t>
         </is>
       </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
       <c r="AM53" t="n">
         <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
@@ -7909,47 +5881,8 @@
           <t>Ian Jason Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
       <c r="AM54" t="n">
         <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
@@ -8058,47 +5991,8 @@
           <t>Ian Jason Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
       <c r="AM55" t="n">
         <v>1</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
@@ -8207,47 +6101,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
       <c r="AM56" t="n">
         <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
@@ -8356,47 +6211,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
       <c r="AM57" t="n">
         <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
@@ -8505,47 +6321,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
       <c r="AM58" t="n">
         <v>1</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
       </c>
       <c r="AP58" t="inlineStr">
         <is>
@@ -8654,47 +6431,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
       <c r="AM59" t="n">
         <v>1</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
@@ -8803,47 +6541,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
       <c r="AM60" t="n">
         <v>1</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
@@ -8952,47 +6651,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
       <c r="AM61" t="n">
         <v>1</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
       </c>
       <c r="AP61" t="inlineStr">
         <is>
@@ -9103,47 +6763,8 @@
           <t>A.A. Padua Design &amp; Const.</t>
         </is>
       </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
       <c r="AM62" t="n">
         <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
@@ -9254,47 +6875,8 @@
           <t>A.A. Padua Design &amp; Const.</t>
         </is>
       </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
       <c r="AM63" t="n">
         <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
@@ -9403,47 +6985,8 @@
           <t>A.A. Padua Design &amp; Const.</t>
         </is>
       </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
       <c r="AM64" t="n">
         <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
@@ -9552,47 +7095,8 @@
           <t>A.A. Padua Design &amp; Const.</t>
         </is>
       </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
       <c r="AM65" t="n">
         <v>1</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
       </c>
       <c r="AP65" t="inlineStr">
         <is>
@@ -9701,47 +7205,8 @@
           <t>E.M. Abin Trdg. &amp; Const.</t>
         </is>
       </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
       <c r="AM66" t="n">
         <v>1</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
@@ -9850,47 +7315,8 @@
           <t>E.M. Abin Trdg. &amp; Const.</t>
         </is>
       </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
       <c r="AM67" t="n">
         <v>1</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
@@ -9999,47 +7425,8 @@
           <t>E.M. Abin Trdg. &amp; Const.</t>
         </is>
       </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
       <c r="AM68" t="n">
         <v>1</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
@@ -10148,47 +7535,8 @@
           <t>E.M. Abin Trdg. &amp; Const.</t>
         </is>
       </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
       <c r="AM69" t="n">
         <v>1</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
@@ -10287,47 +7635,8 @@
           <t>Don Virgilio Builders</t>
         </is>
       </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
       <c r="AM70" t="n">
         <v>1</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
       </c>
       <c r="AP70" t="inlineStr">
         <is>
@@ -10426,47 +7735,8 @@
           <t>Don Virgilio Builders</t>
         </is>
       </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
       <c r="AM71" t="n">
         <v>1</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
@@ -10565,47 +7835,8 @@
           <t>Don Virgilio Builders</t>
         </is>
       </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
       <c r="AM72" t="n">
         <v>1</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
@@ -10709,47 +7940,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
       <c r="AM73" t="n">
         <v>1</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
       </c>
       <c r="AP73" t="inlineStr">
         <is>
@@ -10853,47 +8045,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
       <c r="AM74" t="n">
         <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
       </c>
       <c r="AP74" t="inlineStr">
         <is>
@@ -10997,47 +8150,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
       <c r="AM75" t="n">
         <v>1</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
       </c>
       <c r="AP75" t="inlineStr">
         <is>
@@ -11141,47 +8255,8 @@
           <t>NMDC CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
       <c r="AM76" t="n">
         <v>1</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
       </c>
       <c r="AP76" t="inlineStr">
         <is>
@@ -11285,47 +8360,8 @@
           <t>NMDC CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
       <c r="AM77" t="n">
         <v>1</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
@@ -11429,47 +8465,8 @@
           <t>NMDC CONSTRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
       <c r="AM78" t="n">
         <v>1</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
       </c>
       <c r="AP78" t="inlineStr">
         <is>
@@ -11573,47 +8570,8 @@
           <t>RG FLORENTINO CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
       <c r="AM79" t="n">
         <v>1</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
       </c>
       <c r="AP79" t="inlineStr">
         <is>
@@ -11717,47 +8675,8 @@
           <t>RG FLORENTINO CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
       <c r="AM80" t="n">
         <v>1</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
       </c>
       <c r="AP80" t="inlineStr">
         <is>
@@ -11861,47 +8780,8 @@
           <t>RG FLORENTINO CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0</v>
-      </c>
       <c r="AM81" t="n">
         <v>1</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
       </c>
       <c r="AP81" t="inlineStr">
         <is>
@@ -12005,47 +8885,8 @@
           <t>CSR CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="AA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>0</v>
-      </c>
       <c r="AM82" t="n">
         <v>1</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
@@ -12149,47 +8990,8 @@
           <t>CSR CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="AA83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>0</v>
-      </c>
       <c r="AM83" t="n">
         <v>1</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
       </c>
       <c r="AP83" t="inlineStr">
         <is>
@@ -12288,47 +9090,8 @@
       <c r="X84" s="3" t="n">
         <v>44134</v>
       </c>
-      <c r="AA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
       <c r="AM84" t="n">
         <v>1</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
       </c>
       <c r="AP84" t="inlineStr">
         <is>
@@ -12432,47 +9195,8 @@
           <t>CLUSTER 2</t>
         </is>
       </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
       <c r="AM85" t="n">
         <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>0</v>
       </c>
       <c r="AO85" t="n">
         <v>0</v>
@@ -12579,47 +9303,8 @@
           <t>CLUSTER 2</t>
         </is>
       </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
       <c r="AM86" t="n">
         <v>1</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>0</v>
       </c>
       <c r="AO86" t="n">
         <v>0</v>
@@ -12726,47 +9411,8 @@
           <t>CLUSTER 2</t>
         </is>
       </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
-      </c>
       <c r="AM87" t="n">
         <v>1</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>0</v>
       </c>
       <c r="AO87" t="n">
         <v>0</v>
@@ -12873,47 +9519,8 @@
           <t>CLUSTER 3</t>
         </is>
       </c>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
       <c r="AM88" t="n">
         <v>1</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
       </c>
       <c r="AO88" t="n">
         <v>0</v>
@@ -13015,47 +9622,8 @@
           <t>KARANGYAN BUILDERS &amp; TRADERS</t>
         </is>
       </c>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>33</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
       <c r="AM89" t="n">
         <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
       </c>
       <c r="AO89" t="n">
         <v>0</v>
@@ -13167,47 +9735,8 @@
           <t>CLUSTER 3</t>
         </is>
       </c>
-      <c r="AA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>0</v>
-      </c>
       <c r="AM90" t="n">
         <v>1</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>0</v>
       </c>
       <c r="AO90" t="n">
         <v>0</v>
@@ -13314,47 +9843,8 @@
           <t>CLUSTER 1</t>
         </is>
       </c>
-      <c r="AA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
       <c r="AM91" t="n">
         <v>1</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>0</v>
       </c>
       <c r="AO91" t="n">
         <v>0</v>
@@ -13458,47 +9948,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
       <c r="AM92" t="n">
         <v>1</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>0</v>
       </c>
       <c r="AO92" t="n">
         <v>0</v>
@@ -13602,47 +10053,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
       <c r="AM93" t="n">
         <v>1</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
       </c>
       <c r="AO93" t="n">
         <v>0</v>
@@ -13746,47 +10158,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>0</v>
-      </c>
       <c r="AM94" t="n">
         <v>1</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>0</v>
       </c>
       <c r="AO94" t="n">
         <v>0</v>
@@ -13890,47 +10263,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
       <c r="AM95" t="n">
         <v>1</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0</v>
       </c>
       <c r="AO95" t="n">
         <v>0</v>
@@ -14034,47 +10368,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>0</v>
-      </c>
       <c r="AM96" t="n">
         <v>1</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>0</v>
       </c>
       <c r="AO96" t="n">
         <v>0</v>
@@ -14178,47 +10473,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>0</v>
-      </c>
       <c r="AM97" t="n">
         <v>1</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>0</v>
       </c>
       <c r="AO97" t="n">
         <v>0</v>
@@ -14322,47 +10578,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
       <c r="AM98" t="n">
         <v>1</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>0</v>
       </c>
       <c r="AO98" t="n">
         <v>0</v>
@@ -14466,47 +10683,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
       <c r="AM99" t="n">
         <v>1</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>0</v>
       </c>
       <c r="AO99" t="n">
         <v>0</v>
@@ -14610,47 +10788,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
       <c r="AM100" t="n">
         <v>1</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>0</v>
       </c>
       <c r="AO100" t="n">
         <v>0</v>
@@ -14754,47 +10893,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0</v>
-      </c>
       <c r="AM101" t="n">
         <v>1</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0</v>
       </c>
       <c r="AO101" t="n">
         <v>0</v>
@@ -14898,47 +10998,8 @@
           <t>GS MOTAR COSTRUCTION BUILDERS AND TRADING</t>
         </is>
       </c>
-      <c r="AA102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>0</v>
-      </c>
       <c r="AM102" t="n">
         <v>1</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>0</v>
       </c>
       <c r="AO102" t="n">
         <v>0</v>
@@ -15041,47 +11102,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0</v>
-      </c>
       <c r="AM103" t="n">
         <v>1</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>0</v>
       </c>
       <c r="AO103" t="n">
         <v>0</v>
@@ -15184,47 +11206,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>0</v>
-      </c>
       <c r="AM104" t="n">
         <v>1</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>0</v>
       </c>
       <c r="AO104" t="n">
         <v>0</v>
@@ -15327,47 +11310,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>0</v>
-      </c>
       <c r="AM105" t="n">
         <v>1</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>0</v>
       </c>
       <c r="AO105" t="n">
         <v>0</v>
@@ -15470,47 +11414,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>0</v>
-      </c>
       <c r="AM106" t="n">
         <v>1</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>0</v>
       </c>
       <c r="AO106" t="n">
         <v>0</v>
@@ -15613,47 +11518,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0</v>
-      </c>
       <c r="AM107" t="n">
         <v>1</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>0</v>
       </c>
       <c r="AO107" t="n">
         <v>0</v>
@@ -15756,47 +11622,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>0</v>
-      </c>
       <c r="AM108" t="n">
         <v>1</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>0</v>
       </c>
       <c r="AO108" t="n">
         <v>0</v>
@@ -15899,47 +11726,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>0</v>
-      </c>
       <c r="AM109" t="n">
         <v>1</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>0</v>
       </c>
       <c r="AO109" t="n">
         <v>0</v>
@@ -16042,47 +11830,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>0</v>
-      </c>
       <c r="AM110" t="n">
         <v>1</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>0</v>
       </c>
       <c r="AO110" t="n">
         <v>0</v>
@@ -16185,47 +11934,8 @@
           <t>hawkstow construction and development</t>
         </is>
       </c>
-      <c r="AA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>0</v>
-      </c>
       <c r="AM111" t="n">
         <v>1</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>0</v>
       </c>
       <c r="AO111" t="n">
         <v>0</v>
@@ -16337,47 +12047,8 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>0</v>
-      </c>
       <c r="AM112" t="n">
         <v>1</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>0</v>
       </c>
       <c r="AO112" t="n">
         <v>0</v>
@@ -16489,47 +12160,8 @@
           <t>CMSEL Constuction and Developer</t>
         </is>
       </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>0</v>
-      </c>
       <c r="AM113" t="n">
         <v>1</v>
-      </c>
-      <c r="AN113" t="n">
-        <v>0</v>
       </c>
       <c r="AO113" t="n">
         <v>0</v>
@@ -16646,47 +12278,8 @@
           <t>For termination</t>
         </is>
       </c>
-      <c r="AA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>0</v>
-      </c>
       <c r="AM114" t="n">
         <v>1</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>0</v>
       </c>
       <c r="AO114" t="n">
         <v>0</v>
@@ -16800,47 +12393,8 @@
           <t>GDB Masterbuilders Corporation</t>
         </is>
       </c>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>0</v>
-      </c>
       <c r="AM115" t="n">
         <v>1</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>0</v>
       </c>
       <c r="AO115" t="n">
         <v>0</v>
@@ -16952,47 +12506,8 @@
           <t>DK Construction</t>
         </is>
       </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>0</v>
-      </c>
       <c r="AM116" t="n">
         <v>1</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>0</v>
       </c>
       <c r="AO116" t="n">
         <v>0</v>
@@ -17104,47 +12619,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>0</v>
-      </c>
       <c r="AM117" t="n">
         <v>1</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>0</v>
       </c>
       <c r="AO117" t="n">
         <v>0</v>
@@ -17256,47 +12732,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>0</v>
-      </c>
       <c r="AM118" t="n">
         <v>1</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>0</v>
       </c>
       <c r="AO118" t="n">
         <v>0</v>
@@ -17408,47 +12845,8 @@
           <t>Maryknol Builders and Supply</t>
         </is>
       </c>
-      <c r="AA119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>0</v>
-      </c>
       <c r="AM119" t="n">
         <v>1</v>
-      </c>
-      <c r="AN119" t="n">
-        <v>0</v>
       </c>
       <c r="AO119" t="n">
         <v>0</v>
@@ -17557,47 +12955,8 @@
           <t>Ian Jason Construction and Supply</t>
         </is>
       </c>
-      <c r="AA120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>0</v>
-      </c>
       <c r="AM120" t="n">
         <v>1</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>0</v>
       </c>
       <c r="AO120" t="n">
         <v>0</v>
@@ -17706,47 +13065,8 @@
           <t>Ian Jason Construction and Supply</t>
         </is>
       </c>
-      <c r="AA121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>0</v>
-      </c>
       <c r="AM121" t="n">
         <v>1</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>0</v>
       </c>
       <c r="AO121" t="n">
         <v>0</v>
@@ -17853,47 +13173,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>0</v>
-      </c>
       <c r="AM122" t="n">
         <v>1</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>0</v>
       </c>
       <c r="AO122" t="n">
         <v>0</v>
@@ -18005,47 +13286,8 @@
           <t>TRIPLE PEAK MOUNTAIN CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>0</v>
-      </c>
       <c r="AM123" t="n">
         <v>1</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>0</v>
       </c>
       <c r="AO123" t="n">
         <v>0</v>
@@ -18154,47 +13396,8 @@
           <t>RG FLORENTINO CONSTRUCTION AND TRADING INC.</t>
         </is>
       </c>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>0</v>
-      </c>
       <c r="AM124" t="n">
         <v>1</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>0</v>
       </c>
       <c r="AO124" t="n">
         <v>0</v>
@@ -18272,47 +13475,8 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="AA125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>0</v>
-      </c>
       <c r="AM125" t="n">
         <v>1</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>0</v>
       </c>
       <c r="AP125" t="inlineStr">
         <is>
@@ -18387,47 +13551,8 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="AA126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>0</v>
-      </c>
       <c r="AM126" t="n">
         <v>1</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>0</v>
       </c>
       <c r="AP126" t="inlineStr">
         <is>
@@ -18540,47 +13665,8 @@
           <t>MARYKNOLL BUILDERS AMD SUPPLY</t>
         </is>
       </c>
-      <c r="AA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>0</v>
-      </c>
       <c r="AM127" t="n">
         <v>1</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>0</v>
       </c>
       <c r="AP127" t="inlineStr">
         <is>
@@ -18696,47 +13782,8 @@
           <t>MARYKNOLL BUILDERS AMD SUPPLY</t>
         </is>
       </c>
-      <c r="AA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>0</v>
-      </c>
       <c r="AM128" t="n">
         <v>1</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>0</v>
       </c>
       <c r="AP128" t="inlineStr">
         <is>
@@ -18852,47 +13899,8 @@
           <t>MARYKNOLL BUILDERS AMD SUPPLY</t>
         </is>
       </c>
-      <c r="AA129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>0</v>
-      </c>
       <c r="AM129" t="n">
         <v>1</v>
-      </c>
-      <c r="AN129" t="n">
-        <v>0</v>
       </c>
       <c r="AP129" t="inlineStr">
         <is>
@@ -19000,47 +14008,8 @@
           <t>MARYKNOLL BUILDERS AMD SUPPLY</t>
         </is>
       </c>
-      <c r="AA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>0</v>
-      </c>
       <c r="AM130" t="n">
         <v>1</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>0</v>
       </c>
       <c r="AP130" t="inlineStr">
         <is>
@@ -19153,47 +14122,8 @@
           <t>MARYKNOLL BUILDERS AMD SUPPLY</t>
         </is>
       </c>
-      <c r="AA131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>0</v>
-      </c>
       <c r="AM131" t="n">
         <v>1</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>0</v>
       </c>
       <c r="AO131" t="n">
         <v>44986</v>
@@ -19294,47 +14224,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>0</v>
-      </c>
       <c r="AM132" t="n">
         <v>1</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>0</v>
       </c>
       <c r="AO132" t="n">
         <v>44986</v>
@@ -19435,47 +14326,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>0</v>
-      </c>
       <c r="AM133" t="n">
         <v>1</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>0</v>
       </c>
       <c r="AO133" t="n">
         <v>44986</v>
@@ -19581,47 +14433,8 @@
           <t xml:space="preserve"> Tawid dagat through maliit lang na bangka, hindi pa matawid, parati masama ang panahon, contractor had requested letter for time suspension. we attempted twice to reach the school but unfortunately palaging failure</t>
         </is>
       </c>
-      <c r="AA134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>0</v>
-      </c>
       <c r="AM134" t="n">
         <v>1</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>0</v>
       </c>
       <c r="AO134" t="n">
         <v>44986</v>
@@ -19722,47 +14535,8 @@
           <t>RMR CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="AA135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>0</v>
-      </c>
       <c r="AM135" t="n">
         <v>1</v>
-      </c>
-      <c r="AN135" t="n">
-        <v>0</v>
       </c>
       <c r="AO135" t="n">
         <v>44986</v>
@@ -19863,47 +14637,8 @@
           <t>TRIPLE PEAK MOUNTAIN CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>0</v>
-      </c>
       <c r="AM136" t="n">
         <v>1</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>0</v>
       </c>
       <c r="AO136" t="n">
         <v>44986</v>
@@ -19998,47 +14733,8 @@
           <t>2ND FAILURE OF BIDDING - FOR NEGOTIATED PROCUREMENT</t>
         </is>
       </c>
-      <c r="AA137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>0</v>
-      </c>
       <c r="AM137" t="n">
         <v>1</v>
-      </c>
-      <c r="AN137" t="n">
-        <v>0</v>
       </c>
       <c r="AO137" t="n">
         <v>44986</v>
@@ -20139,47 +14835,8 @@
           <t>TRIPLE PEAK MOUNTAIN CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>0</v>
-      </c>
       <c r="AM138" t="n">
         <v>1</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>0</v>
       </c>
       <c r="AO138" t="n">
         <v>44986</v>
@@ -20259,47 +14916,8 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="AA139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>0</v>
-      </c>
       <c r="AM139" t="n">
         <v>1</v>
-      </c>
-      <c r="AN139" t="n">
-        <v>0</v>
       </c>
       <c r="AP139" t="n">
         <v>2.25</v>
@@ -20374,47 +14992,8 @@
       <c r="O140" t="n">
         <v>1</v>
       </c>
-      <c r="AA140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>0</v>
-      </c>
       <c r="AM140" t="n">
         <v>1</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>0</v>
       </c>
       <c r="AP140" t="n">
         <v>2.25</v>
@@ -20525,47 +15104,8 @@
           <t>Lumel Glenn Construction</t>
         </is>
       </c>
-      <c r="AA141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>0</v>
-      </c>
       <c r="AM141" t="n">
         <v>1</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>0</v>
       </c>
       <c r="AP141" t="n">
         <v>7.24</v>
@@ -20676,47 +15216,8 @@
           <t>Archidus Development Corporation</t>
         </is>
       </c>
-      <c r="AA142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ142" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL142" t="n">
-        <v>0</v>
-      </c>
       <c r="AM142" t="n">
         <v>1</v>
-      </c>
-      <c r="AN142" t="n">
-        <v>0</v>
       </c>
       <c r="AP142" t="n">
         <v>7.24</v>
@@ -20827,47 +15328,8 @@
           <t>LED Reyes Constructio (LCR) OPC</t>
         </is>
       </c>
-      <c r="AA143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>0</v>
-      </c>
       <c r="AM143" t="n">
         <v>1</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>0</v>
       </c>
       <c r="AP143" t="n">
         <v>7.24</v>
@@ -20978,47 +15440,8 @@
           <t>Lumel Glenn Construction</t>
         </is>
       </c>
-      <c r="AA144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL144" t="n">
-        <v>0</v>
-      </c>
       <c r="AM144" t="n">
         <v>1</v>
-      </c>
-      <c r="AN144" t="n">
-        <v>0</v>
       </c>
       <c r="AP144" t="n">
         <v>7.24</v>
@@ -21129,47 +15552,8 @@
           <t>LED Reyes Constructio (LCR) OPC</t>
         </is>
       </c>
-      <c r="AA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>0</v>
-      </c>
       <c r="AM145" t="n">
         <v>1</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>0</v>
       </c>
       <c r="AP145" t="n">
         <v>7.24</v>
@@ -21280,47 +15664,8 @@
           <t>RM Sescar Enterprises</t>
         </is>
       </c>
-      <c r="AA146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>0</v>
-      </c>
       <c r="AM146" t="n">
         <v>1</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>0</v>
       </c>
       <c r="AP146" t="n">
         <v>7.24</v>
@@ -21431,47 +15776,8 @@
           <t>D.M. Almero Enterprises</t>
         </is>
       </c>
-      <c r="AA147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>0</v>
-      </c>
       <c r="AM147" t="n">
         <v>1</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>0</v>
       </c>
       <c r="AP147" t="n">
         <v>7.24</v>
@@ -21587,47 +15893,8 @@
           <t>with modification - from 18 CL to 8 CL physical target</t>
         </is>
       </c>
-      <c r="AA148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL148" t="n">
-        <v>0</v>
-      </c>
       <c r="AM148" t="n">
         <v>1</v>
-      </c>
-      <c r="AN148" t="n">
-        <v>0</v>
       </c>
       <c r="AP148" t="n">
         <v>4.25</v>
@@ -21731,47 +15998,8 @@
           <t>Futuristic Trading and Construction</t>
         </is>
       </c>
-      <c r="AA149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>0</v>
-      </c>
       <c r="AM149" t="n">
         <v>1</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>0</v>
       </c>
       <c r="AP149" t="n">
         <v>4.25</v>
@@ -21881,47 +16109,8 @@
           <t>RBM2 Construction</t>
         </is>
       </c>
-      <c r="AA150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>0</v>
-      </c>
       <c r="AM150" t="n">
         <v>1</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>0</v>
       </c>
       <c r="AP150" t="n">
         <v>4.25</v>
@@ -22032,47 +16221,8 @@
           <t>Bats Construction Services</t>
         </is>
       </c>
-      <c r="AA151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE151" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ151" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>0</v>
-      </c>
       <c r="AM151" t="n">
         <v>1</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>0</v>
       </c>
       <c r="AP151" t="n">
         <v>8.24</v>
@@ -22183,47 +16333,8 @@
           <t>Maryknoll Builders and Supply</t>
         </is>
       </c>
-      <c r="AA152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE152" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL152" t="n">
-        <v>0</v>
-      </c>
       <c r="AM152" t="n">
         <v>1</v>
-      </c>
-      <c r="AN152" t="n">
-        <v>0</v>
       </c>
       <c r="AP152" t="n">
         <v>8.24</v>
@@ -22334,47 +16445,8 @@
           <t>BJ-RAM Const. Services</t>
         </is>
       </c>
-      <c r="AA153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL153" t="n">
-        <v>0</v>
-      </c>
       <c r="AM153" t="n">
         <v>1</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>0</v>
       </c>
       <c r="AP153" t="n">
         <v>8.24</v>
@@ -22485,47 +16557,8 @@
           <t>E.V.Villaos Trdg. &amp; Const.</t>
         </is>
       </c>
-      <c r="AA154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE154" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ154" t="n">
-        <v>33</v>
-      </c>
-      <c r="AK154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL154" t="n">
-        <v>0</v>
-      </c>
       <c r="AM154" t="n">
         <v>1</v>
-      </c>
-      <c r="AN154" t="n">
-        <v>0</v>
       </c>
       <c r="AP154" t="n">
         <v>4.25</v>
@@ -22636,47 +16669,8 @@
           <t>E.M.Abin Trading &amp; Const.</t>
         </is>
       </c>
-      <c r="AA155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>0</v>
-      </c>
       <c r="AM155" t="n">
         <v>1</v>
-      </c>
-      <c r="AN155" t="n">
-        <v>0</v>
       </c>
       <c r="AP155" t="n">
         <v>4.25</v>
@@ -22787,47 +16781,8 @@
           <t>AFG Construction Corporation</t>
         </is>
       </c>
-      <c r="AA156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>0</v>
-      </c>
       <c r="AM156" t="n">
         <v>1</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>0</v>
       </c>
       <c r="AP156" t="n">
         <v>3.24</v>
@@ -22938,47 +16893,8 @@
           <t>New Space Trdg &amp; Const. Corp.</t>
         </is>
       </c>
-      <c r="AA157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>0</v>
-      </c>
       <c r="AM157" t="n">
         <v>1</v>
-      </c>
-      <c r="AN157" t="n">
-        <v>0</v>
       </c>
       <c r="AP157" t="n">
         <v>3.24</v>
@@ -23088,47 +17004,8 @@
           <t>RBM2 Construction</t>
         </is>
       </c>
-      <c r="AA158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ158" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL158" t="n">
-        <v>0</v>
-      </c>
       <c r="AM158" t="n">
         <v>1</v>
-      </c>
-      <c r="AN158" t="n">
-        <v>0</v>
       </c>
       <c r="AP158" t="n">
         <v>4.25</v>
@@ -23239,47 +17116,8 @@
           <t>E.V.Villaos Trdg. &amp; Const.</t>
         </is>
       </c>
-      <c r="AA159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ159" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL159" t="n">
-        <v>0</v>
-      </c>
       <c r="AM159" t="n">
         <v>1</v>
-      </c>
-      <c r="AN159" t="n">
-        <v>0</v>
       </c>
       <c r="AP159" t="n">
         <v>4.25</v>
@@ -23354,47 +17192,8 @@
       <c r="O160" t="n">
         <v>1</v>
       </c>
-      <c r="AA160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE160" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL160" t="n">
-        <v>0</v>
-      </c>
       <c r="AM160" t="n">
         <v>1</v>
-      </c>
-      <c r="AN160" t="n">
-        <v>0</v>
       </c>
       <c r="AP160" t="n">
         <v>7.24</v>
@@ -23469,47 +17268,8 @@
       <c r="O161" t="n">
         <v>1</v>
       </c>
-      <c r="AA161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE161" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ161" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL161" t="n">
-        <v>0</v>
-      </c>
       <c r="AM161" t="n">
         <v>1</v>
-      </c>
-      <c r="AN161" t="n">
-        <v>0</v>
       </c>
       <c r="AP161" t="n">
         <v>7.24</v>
@@ -23584,47 +17344,8 @@
       <c r="O162" t="n">
         <v>1</v>
       </c>
-      <c r="AA162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE162" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ162" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL162" t="n">
-        <v>0</v>
-      </c>
       <c r="AM162" t="n">
         <v>1</v>
-      </c>
-      <c r="AN162" t="n">
-        <v>0</v>
       </c>
       <c r="AP162" t="n">
         <v>7.24</v>
@@ -23699,47 +17420,8 @@
       <c r="O163" t="n">
         <v>1</v>
       </c>
-      <c r="AA163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE163" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ163" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL163" t="n">
-        <v>0</v>
-      </c>
       <c r="AM163" t="n">
         <v>1</v>
-      </c>
-      <c r="AN163" t="n">
-        <v>0</v>
       </c>
       <c r="AP163" t="n">
         <v>7.24</v>
@@ -23850,47 +17532,8 @@
           <t>with approved realignment scope of works from 7 classrooms to  10classrooms</t>
         </is>
       </c>
-      <c r="AA164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>0</v>
-      </c>
       <c r="AM164" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>0.09999999999999998</v>
       </c>
       <c r="AQ164" t="n">
         <v>1</v>
@@ -23994,47 +17637,8 @@
           <t>Hawkstow Construction and Development</t>
         </is>
       </c>
-      <c r="AA165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>0</v>
-      </c>
       <c r="AM165" t="n">
         <v>1</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>0</v>
       </c>
       <c r="AP165" t="n">
         <v>2.25</v>
@@ -24129,47 +17733,8 @@
           <t>Hawkstow Construction and Development</t>
         </is>
       </c>
-      <c r="AA166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE166" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ166" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL166" t="n">
-        <v>0</v>
-      </c>
       <c r="AM166" t="n">
         <v>1</v>
-      </c>
-      <c r="AN166" t="n">
-        <v>0</v>
       </c>
       <c r="AP166" t="n">
         <v>2.25</v>
@@ -24264,47 +17829,8 @@
           <t>Hawkstow Construction and Development</t>
         </is>
       </c>
-      <c r="AA167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE167" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ167" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL167" t="n">
-        <v>0</v>
-      </c>
       <c r="AM167" t="n">
         <v>1</v>
-      </c>
-      <c r="AN167" t="n">
-        <v>0</v>
       </c>
       <c r="AP167" t="n">
         <v>2.25</v>
@@ -24399,47 +17925,8 @@
           <t>Hawkstow Construction and Development</t>
         </is>
       </c>
-      <c r="AA168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL168" t="n">
-        <v>0</v>
-      </c>
       <c r="AM168" t="n">
         <v>1</v>
-      </c>
-      <c r="AN168" t="n">
-        <v>0</v>
       </c>
       <c r="AP168" t="n">
         <v>2.25</v>
@@ -24534,47 +18021,8 @@
           <t>Hawkstow Construction and Development</t>
         </is>
       </c>
-      <c r="AA169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE169" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ169" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL169" t="n">
-        <v>0</v>
-      </c>
       <c r="AM169" t="n">
         <v>1</v>
-      </c>
-      <c r="AN169" t="n">
-        <v>0</v>
       </c>
       <c r="AP169" t="n">
         <v>2.25</v>
@@ -24683,47 +18131,8 @@
           <t>Kasanga Construction and Supplies</t>
         </is>
       </c>
-      <c r="AA170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE170" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ170" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL170" t="n">
-        <v>0</v>
-      </c>
       <c r="AM170" t="n">
         <v>1</v>
-      </c>
-      <c r="AN170" t="n">
-        <v>0</v>
       </c>
       <c r="AP170" t="n">
         <v>1.25</v>
@@ -24832,47 +18241,8 @@
           <t>FS Sugay Construction &amp; Supplies</t>
         </is>
       </c>
-      <c r="AA171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE171" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL171" t="n">
-        <v>0</v>
-      </c>
       <c r="AM171" t="n">
         <v>1</v>
-      </c>
-      <c r="AN171" t="n">
-        <v>0</v>
       </c>
       <c r="AP171" t="n">
         <v>1.25</v>
@@ -24981,47 +18351,8 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="AA172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>0</v>
-      </c>
       <c r="AM172" t="n">
         <v>1</v>
-      </c>
-      <c r="AN172" t="n">
-        <v>0</v>
       </c>
       <c r="AP172" t="n">
         <v>1.25</v>
@@ -25136,47 +18467,8 @@
           <t>ADL Constrak OPC</t>
         </is>
       </c>
-      <c r="AA173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE173" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL173" t="n">
-        <v>0</v>
-      </c>
       <c r="AM173" t="n">
         <v>1</v>
-      </c>
-      <c r="AN173" t="n">
-        <v>0</v>
       </c>
       <c r="AP173" t="n">
         <v>1.25</v>
@@ -25291,47 +18583,8 @@
           <t>ADL Constrak OPC</t>
         </is>
       </c>
-      <c r="AA174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE174" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ174" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL174" t="n">
-        <v>0</v>
-      </c>
       <c r="AM174" t="n">
         <v>1</v>
-      </c>
-      <c r="AN174" t="n">
-        <v>0</v>
       </c>
       <c r="AP174" t="n">
         <v>1.25</v>
@@ -25446,47 +18699,8 @@
           <t>ADL Constrak OPC</t>
         </is>
       </c>
-      <c r="AA175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE175" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ175" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL175" t="n">
-        <v>0</v>
-      </c>
       <c r="AM175" t="n">
         <v>1</v>
-      </c>
-      <c r="AN175" t="n">
-        <v>0</v>
       </c>
       <c r="AP175" t="n">
         <v>1.25</v>
@@ -25601,47 +18815,8 @@
           <t>ADL Constrak OPC</t>
         </is>
       </c>
-      <c r="AA176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ176" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>0</v>
-      </c>
       <c r="AM176" t="n">
         <v>1</v>
-      </c>
-      <c r="AN176" t="n">
-        <v>0</v>
       </c>
       <c r="AP176" t="n">
         <v>1.25</v>
@@ -25750,47 +18925,8 @@
           <t>RBM2 Construction</t>
         </is>
       </c>
-      <c r="AA177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE177" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ177" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL177" t="n">
-        <v>0</v>
-      </c>
       <c r="AM177" t="n">
         <v>1</v>
-      </c>
-      <c r="AN177" t="n">
-        <v>0</v>
       </c>
       <c r="AP177" t="n">
         <v>4.25</v>
@@ -25896,47 +19032,8 @@
           <t>Em Abin Trading and Construction</t>
         </is>
       </c>
-      <c r="AA178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD178" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI178" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL178" t="n">
-        <v>0</v>
-      </c>
       <c r="AM178" t="n">
         <v>0.1</v>
-      </c>
-      <c r="AN178" t="n">
-        <v>0.35</v>
       </c>
       <c r="AU178" t="inlineStr">
         <is>
@@ -26042,47 +19139,8 @@
           <t>RBM2 Construction</t>
         </is>
       </c>
-      <c r="AA179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE179" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ179" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL179" t="n">
-        <v>0</v>
-      </c>
       <c r="AM179" t="n">
         <v>1</v>
-      </c>
-      <c r="AN179" t="n">
-        <v>0</v>
       </c>
       <c r="AP179" t="n">
         <v>4.25</v>
@@ -26191,47 +19249,8 @@
           <t>RBM2 Construction</t>
         </is>
       </c>
-      <c r="AA180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ180" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL180" t="n">
-        <v>0</v>
-      </c>
       <c r="AM180" t="n">
         <v>1</v>
-      </c>
-      <c r="AN180" t="n">
-        <v>0</v>
       </c>
       <c r="AP180" t="n">
         <v>4.25</v>
@@ -26349,47 +19368,8 @@
           <t>REALIGNED FROM STA MONICA HS TO INAGAWAN NHS</t>
         </is>
       </c>
-      <c r="AA181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE181" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ181" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL181" t="n">
-        <v>0</v>
-      </c>
       <c r="AM181" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AN181" t="n">
-        <v>0.05000000000000004</v>
       </c>
       <c r="AP181" t="n">
         <v>5.25</v>
@@ -26516,47 +19496,8 @@
           <t>For Final Inspection</t>
         </is>
       </c>
-      <c r="AA182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE182" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ182" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL182" t="n">
-        <v>0</v>
-      </c>
       <c r="AM182" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AN182" t="n">
-        <v>0.05000000000000004</v>
       </c>
       <c r="AP182" t="n">
         <v>5.25</v>
@@ -26669,47 +19610,8 @@
           <t>MARYJONICA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE183" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ183" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL183" t="n">
-        <v>0</v>
-      </c>
       <c r="AM183" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AN183" t="n">
-        <v>0.2</v>
       </c>
       <c r="AP183" t="n">
         <v>5.25</v>
@@ -26825,47 +19727,8 @@
           <t>RMR Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="AA184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD184" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI184" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL184" t="n">
-        <v>0</v>
-      </c>
       <c r="AM184" t="n">
         <v>0.45</v>
-      </c>
-      <c r="AN184" t="n">
-        <v>0.04849999999999999</v>
       </c>
       <c r="AU184" t="inlineStr">
         <is>
@@ -26978,47 +19841,8 @@
           <t>RMR Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="AA185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD185" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI185" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK185" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL185" t="n">
-        <v>0</v>
-      </c>
       <c r="AM185" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AN185" t="n">
-        <v>0.01999999999999999</v>
       </c>
       <c r="AU185" t="inlineStr">
         <is>
@@ -27131,47 +19955,8 @@
           <t>RMR Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="AA186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD186" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI186" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK186" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL186" t="n">
-        <v>0</v>
-      </c>
       <c r="AM186" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AN186" t="n">
-        <v>0.23</v>
       </c>
       <c r="AU186" t="inlineStr">
         <is>
@@ -27284,47 +20069,8 @@
           <t>RMR Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="AA187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD187" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI187" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL187" t="n">
-        <v>0</v>
-      </c>
       <c r="AM187" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AN187" t="n">
-        <v>0.1439</v>
       </c>
       <c r="AU187" t="inlineStr">
         <is>
@@ -27437,47 +20183,8 @@
           <t>RMR Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="AA188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD188" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI188" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL188" t="n">
-        <v>0</v>
-      </c>
       <c r="AM188" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AN188" t="n">
-        <v>0</v>
       </c>
       <c r="AU188" t="inlineStr">
         <is>
